--- a/MyNote.xlsx
+++ b/MyNote.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495" activeTab="1"/>
+    <workbookView windowWidth="25665" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="system note" sheetId="1" r:id="rId1"/>
     <sheet name="Các API" sheetId="2" r:id="rId2"/>
+    <sheet name="swagger" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>http://127.0.0.1:8000/api/auth/register</t>
   </si>
@@ -24,6 +25,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -65,6 +72,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -106,6 +119,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -147,6 +166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -185,6 +210,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>var</t>
     </r>
     <r>
@@ -272,6 +303,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>pm</t>
     </r>
     <r>
@@ -377,6 +414,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -409,6 +452,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -450,6 +499,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -491,6 +546,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -532,6 +593,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -555,6 +622,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -596,6 +669,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -637,6 +716,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -678,6 +763,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -719,6 +810,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -761,6 +858,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -802,6 +905,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -846,6 +955,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -887,6 +1002,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -928,6 +1049,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -960,6 +1087,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1001,6 +1134,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -1033,6 +1172,21 @@
   </si>
   <si>
     <t>http://127.0.0.1:8000/api/auth/user-profile</t>
+  </si>
+  <si>
+    <t>composer require darkaonline/l5-swagger</t>
+  </si>
+  <si>
+    <t>php artisan vendor:publish --provider "L5Swagger\L5SwaggerServiceProvider"</t>
+  </si>
+  <si>
+    <t>https://co-well.vn/nhat-ky-cong-nghe/tim-hieu-ve-laravel-api-documentation/</t>
+  </si>
+  <si>
+    <t>https://kodementor.com/laravel-api-documentation-with-swagger/</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/swagger/index.html</t>
   </si>
 </sst>
 </file>
@@ -1040,12 +1194,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1076,6 +1230,105 @@
       <color rgb="FF001188"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1087,105 +1340,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,36 +1376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFA31515"/>
       <name val="Consolas"/>
@@ -1289,187 +1436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,6 +1627,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1507,6 +1663,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1525,8 +1692,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1560,171 +1727,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2443,7 +2590,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -2460,8 +2607,8 @@
   <sheetPr/>
   <dimension ref="A3:S236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="H279" sqref="H279"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2702,4 +2849,46 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>